--- a/medicine/Handicap/L'Enfant-cheval/L'Enfant-cheval.xlsx
+++ b/medicine/Handicap/L'Enfant-cheval/L'Enfant-cheval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Enfant-cheval</t>
+          <t>L'Enfant-cheval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Enfant-cheval (اسب دوپا, Asbé dou-pa) est un  film franco-iranien réalisé par Samira Makhmalbaf, sorti en 2008.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Enfant-cheval</t>
+          <t>L'Enfant-cheval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un petit garçon d'une famille riche est handicapé moteur et a besoin d'aide pour se déplacer dans un village d'Afghanistan où le fauteuil roulant n'a pas fait son apparition. Cet enfant embauche un jeune garçon valide physiquement, mais simple d'esprit, pour la belle somme d'un dollar par jour. Le jeune simplet va connaître fatigue et humiliation sous la direction de son méchant maître sans scrupule. Mais bien vite, ils vont se rendre compte que leur tandem est désormais indispensable dans leur vie respective.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Enfant-cheval</t>
+          <t>L'Enfant-cheval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'Enfant-cheval
 Titre original : اسب دوپا (Asbé dou-pa)
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Enfant-cheval</t>
+          <t>L'Enfant-cheval</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ziya Mirza Mohamad : Guiah, l'enfant-cheval
 Haron Ahad : le maître
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Enfant-cheval</t>
+          <t>L'Enfant-cheval</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,9 +644,11 @@
           <t>Tournage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été tourné en Afghanistan[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été tourné en Afghanistan.
 </t>
         </is>
       </c>
@@ -639,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Enfant-cheval</t>
+          <t>L'Enfant-cheval</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,11 +679,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-2008 : prix Georges Delerue pour la meilleure musique au festival international du film des Flandres.
-2008 :  prix spécial du jury pour Samira Makhmalbaf au festival international du film de Saint-Sébastien.
-Sélection
-2008 : sélection en compétition pour le Grand prix au festival international du film des Flandres.</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2008 : prix Georges Delerue pour la meilleure musique au festival international du film des Flandres.
+2008 :  prix spécial du jury pour Samira Makhmalbaf au festival international du film de Saint-Sébastien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Enfant-cheval</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Enfant-cheval</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2008 : sélection en compétition pour le Grand prix au festival international du film des Flandres.</t>
         </is>
       </c>
     </row>
